--- a/sulamericana/datasets_sula/2_resultados_quartas_sula.xlsx
+++ b/sulamericana/datasets_sula/2_resultados_quartas_sula.xlsx
@@ -462,8 +462,14 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2">
+        <v>82.10009765625</v>
+      </c>
       <c r="E2" t="s">
         <v>14</v>
+      </c>
+      <c r="F2">
+        <v>105.02001953125</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -476,8 +482,14 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="D3">
+        <v>68.990234375</v>
+      </c>
       <c r="E3" t="s">
         <v>15</v>
+      </c>
+      <c r="F3">
+        <v>81.2001953125</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,8 +502,14 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4">
+        <v>117.7998046875</v>
+      </c>
       <c r="E4" t="s">
         <v>16</v>
+      </c>
+      <c r="F4">
+        <v>89.7998046875</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,8 +522,14 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
+      <c r="D5">
+        <v>89.89990234375</v>
+      </c>
       <c r="E5" t="s">
         <v>17</v>
+      </c>
+      <c r="F5">
+        <v>98.5</v>
       </c>
     </row>
   </sheetData>

--- a/sulamericana/datasets_sula/2_resultados_quartas_sula.xlsx
+++ b/sulamericana/datasets_sula/2_resultados_quartas_sula.xlsx
@@ -575,8 +575,14 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
+      <c r="D2">
+        <v>75.35986328125</v>
+      </c>
       <c r="E2" t="s">
         <v>10</v>
+      </c>
+      <c r="F2">
+        <v>54.2900390625</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -589,8 +595,14 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
+      <c r="D3">
+        <v>50.60009765625</v>
+      </c>
       <c r="E3" t="s">
         <v>11</v>
+      </c>
+      <c r="F3">
+        <v>59.199951171875</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -603,8 +615,14 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
+      <c r="D4">
+        <v>70.97021484375</v>
+      </c>
       <c r="E4" t="s">
         <v>12</v>
+      </c>
+      <c r="F4">
+        <v>69.77001953125</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -617,8 +635,14 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
+      <c r="D5">
+        <v>80.35009765625</v>
+      </c>
       <c r="E5" t="s">
         <v>13</v>
+      </c>
+      <c r="F5">
+        <v>61.260009765625</v>
       </c>
     </row>
   </sheetData>
